--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6946328753043</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H2">
-        <v>33.6946328753043</v>
+        <v>101.917316</v>
       </c>
       <c r="I2">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J2">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>439.8107530588787</v>
+        <v>451.138573330325</v>
       </c>
       <c r="R2">
-        <v>439.8107530588787</v>
+        <v>4060.247159972924</v>
       </c>
       <c r="S2">
-        <v>0.5665097164221508</v>
+        <v>0.4986715057436532</v>
       </c>
       <c r="T2">
-        <v>0.5665097164221508</v>
+        <v>0.4986715057436532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0718335414887</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H3">
-        <v>10.0718335414887</v>
+        <v>101.917316</v>
       </c>
       <c r="I3">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J3">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>131.4660619974425</v>
+        <v>3.461361182576889</v>
       </c>
       <c r="R3">
-        <v>131.4660619974425</v>
+        <v>31.152250643192</v>
       </c>
       <c r="S3">
-        <v>0.1693382914886067</v>
+        <v>0.00382605765695501</v>
       </c>
       <c r="T3">
-        <v>0.1693382914886067</v>
+        <v>0.003826057656955011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.5970332635358</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H4">
-        <v>15.5970332635358</v>
+        <v>101.917316</v>
       </c>
       <c r="I4">
-        <v>0.2622337784136703</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J4">
-        <v>0.2622337784136703</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>203.5856265449252</v>
+        <v>2.137047578472889</v>
       </c>
       <c r="R4">
-        <v>203.5856265449252</v>
+        <v>19.233428206256</v>
       </c>
       <c r="S4">
-        <v>0.2622337784136703</v>
+        <v>0.002362211517263911</v>
       </c>
       <c r="T4">
-        <v>0.2622337784136703</v>
+        <v>0.002362211517263912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>33.97243866666667</v>
+      </c>
+      <c r="H5">
+        <v>101.917316</v>
+      </c>
+      <c r="I5">
+        <v>0.5080457863598148</v>
+      </c>
+      <c r="J5">
+        <v>0.5080457863598148</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.084843</v>
+      </c>
+      <c r="N5">
+        <v>0.254529</v>
+      </c>
+      <c r="O5">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P5">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q5">
+        <v>2.882323613796</v>
+      </c>
+      <c r="R5">
+        <v>25.940912524164</v>
+      </c>
+      <c r="S5">
+        <v>0.00318601144194274</v>
+      </c>
+      <c r="T5">
+        <v>0.003186011441942741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1382523333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.414757</v>
+      </c>
+      <c r="I6">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="J6">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N6">
+        <v>39.838639</v>
+      </c>
+      <c r="O6">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P6">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q6">
+        <v>1.835928266191445</v>
+      </c>
+      <c r="R6">
+        <v>16.523354395723</v>
+      </c>
+      <c r="S6">
+        <v>0.002029365625245864</v>
+      </c>
+      <c r="T6">
+        <v>0.002029365625245865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1382523333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.414757</v>
+      </c>
+      <c r="I7">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="J7">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>0.01408616157044444</v>
+      </c>
+      <c r="R7">
+        <v>0.126775454134</v>
+      </c>
+      <c r="S7">
+        <v>1.55703099130445E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.557030991304451E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1382523333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.414757</v>
+      </c>
+      <c r="I8">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="J8">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>0.008696809112444444</v>
+      </c>
+      <c r="R8">
+        <v>0.078271282012</v>
+      </c>
+      <c r="S8">
+        <v>9.6131236645383E-06</v>
+      </c>
+      <c r="T8">
+        <v>9.613123664538302E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1382523333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.414757</v>
+      </c>
+      <c r="I9">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="J9">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>0.011729742717</v>
+      </c>
+      <c r="R9">
+        <v>0.105567684453</v>
+      </c>
+      <c r="S9">
+        <v>1.296561369047282E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.296561369047283E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H10">
+        <v>30.635398</v>
+      </c>
+      <c r="I10">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J10">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>135.6080623937024</v>
+      </c>
+      <c r="R10">
+        <v>1220.472561543322</v>
+      </c>
+      <c r="S10">
+        <v>0.1498960201200363</v>
+      </c>
+      <c r="T10">
+        <v>0.1498960201200363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H11">
+        <v>30.635398</v>
+      </c>
+      <c r="I11">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J11">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>1.040453002608444</v>
+      </c>
+      <c r="R11">
+        <v>9.364077023475998</v>
+      </c>
+      <c r="S11">
+        <v>0.001150077373424592</v>
+      </c>
+      <c r="T11">
+        <v>0.001150077373424593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H12">
+        <v>30.635398</v>
+      </c>
+      <c r="I12">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J12">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>0.6423766409964443</v>
+      </c>
+      <c r="R12">
+        <v>5.781389768967998</v>
+      </c>
+      <c r="S12">
+        <v>0.000710058828389513</v>
+      </c>
+      <c r="T12">
+        <v>0.0007100588283895133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H13">
+        <v>30.635398</v>
+      </c>
+      <c r="I13">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J13">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>0.8663996908379998</v>
+      </c>
+      <c r="R13">
+        <v>7.797597217541999</v>
+      </c>
+      <c r="S13">
+        <v>0.0009576854295934334</v>
+      </c>
+      <c r="T13">
+        <v>0.0009576854295934337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H14">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I14">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J14">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>297.7291197222332</v>
+      </c>
+      <c r="R14">
+        <v>2679.562077500098</v>
+      </c>
+      <c r="S14">
+        <v>0.3290985014640035</v>
+      </c>
+      <c r="T14">
+        <v>0.3290985014640035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H15">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I15">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J15">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>2.284326986987111</v>
+      </c>
+      <c r="R15">
+        <v>20.558942882884</v>
+      </c>
+      <c r="S15">
+        <v>0.002525008601686674</v>
+      </c>
+      <c r="T15">
+        <v>0.002525008601686675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H16">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J16">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>1.410345583279111</v>
+      </c>
+      <c r="R16">
+        <v>12.693110249512</v>
+      </c>
+      <c r="S16">
+        <v>0.001558942633614589</v>
+      </c>
+      <c r="T16">
+        <v>0.001558942633614589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H17">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J17">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>1.902190863342</v>
+      </c>
+      <c r="R17">
+        <v>17.119717770078</v>
+      </c>
+      <c r="S17">
+        <v>0.002102609792446256</v>
+      </c>
+      <c r="T17">
+        <v>0.002102609792446257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.114090727310022</v>
-      </c>
-      <c r="H5">
-        <v>0.114090727310022</v>
-      </c>
-      <c r="I5">
-        <v>0.001918213675572323</v>
-      </c>
-      <c r="J5">
-        <v>0.001918213675572323</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="N5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1.489208351993442</v>
-      </c>
-      <c r="R5">
-        <v>1.489208351993442</v>
-      </c>
-      <c r="S5">
-        <v>0.001918213675572323</v>
-      </c>
-      <c r="T5">
-        <v>0.001918213675572323</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.378704</v>
+      </c>
+      <c r="I18">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J18">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>1.676339104872889</v>
+      </c>
+      <c r="R18">
+        <v>15.087051943856</v>
+      </c>
+      <c r="S18">
+        <v>0.001852961805932413</v>
+      </c>
+      <c r="T18">
+        <v>0.001852961805932413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.378704</v>
+      </c>
+      <c r="I19">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J19">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>0.01286171356088889</v>
+      </c>
+      <c r="R19">
+        <v>0.115755422048</v>
+      </c>
+      <c r="S19">
+        <v>1.421685142218119E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.42168514221812E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.378704</v>
+      </c>
+      <c r="I20">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J20">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>0.00794083378488889</v>
+      </c>
+      <c r="R20">
+        <v>0.071467504064</v>
+      </c>
+      <c r="S20">
+        <v>8.777497147137511E-06</v>
+      </c>
+      <c r="T20">
+        <v>8.777497147137514E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.378704</v>
+      </c>
+      <c r="I21">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J21">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>0.010710127824</v>
+      </c>
+      <c r="R21">
+        <v>0.09639115041600001</v>
+      </c>
+      <c r="S21">
+        <v>1.183856997479686E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.183856997479686E-05</v>
       </c>
     </row>
   </sheetData>
